--- a/biology/Botanique/Henri_Gustave_Muehlenbeck/Henri_Gustave_Muehlenbeck.xlsx
+++ b/biology/Botanique/Henri_Gustave_Muehlenbeck/Henri_Gustave_Muehlenbeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Gustave Muehlenbeck, connu aussi sous le nom de Heinrich Gustav Mühlenbeck est un médecin français et un collectionneur botaniste né le 2 juin 1798 à Sainte-Marie-aux-Mines (Haut-Rhin) et décédé le 21 novembre 1845 à Mulhouse). Il est connu pour son travail sur les bryophytes.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a étudié la médecine et la chirurgie à Strasbourg et à Paris. En 1822, il devient médecin généraliste à Guebwiller et à partir de 1833, il a vécu et travaillé à Mühlhausen[1],[2]. Il fut membre fondateur de la Société médicale du Haut-Rhin[3]. 
-Au cours de sa carrière, il a collaboré avec Jean-Baptiste Mougeot, un botaniste connu pour ses investigations sur la flore des Vosges. On se souvient de lui pour ses recherches sur la flore cryptogamique suisse ; en 1839, il accompagna Philipp Bruch et Guillaume Philippe Schimper lors d'une excursion botanique dans les Alpes et, en 1844, se rendit dans le canton des Grisons[1].
-En 1841, le genre Muehlenbeckia a été nommé en son honneur par le botaniste suisse Carl Meissner[4]. En outre, les taxons ayant l'épithète spécifique de muehlenbeckii sont nommés d'après son nom. Exemples[5],[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il a étudié la médecine et la chirurgie à Strasbourg et à Paris. En 1822, il devient médecin généraliste à Guebwiller et à partir de 1833, il a vécu et travaillé à Mühlhausen,. Il fut membre fondateur de la Société médicale du Haut-Rhin. 
+Au cours de sa carrière, il a collaboré avec Jean-Baptiste Mougeot, un botaniste connu pour ses investigations sur la flore des Vosges. On se souvient de lui pour ses recherches sur la flore cryptogamique suisse ; en 1839, il accompagna Philipp Bruch et Guillaume Philippe Schimper lors d'une excursion botanique dans les Alpes et, en 1844, se rendit dans le canton des Grisons.
+En 1841, le genre Muehlenbeckia a été nommé en son honneur par le botaniste suisse Carl Meissner. En outre, les taxons ayant l'épithète spécifique de muehlenbeckii sont nommés d'après son nom. Exemples, :
 Bryum muehlenbeckii, bryum à feuilles concaves (« fil mousse de Muehlenbeck »)
 Dicranum muehlenbeckii, dicrane laineux,
 Grimmia muehlenbeckii, grimmie à deux crêtes.</t>
